--- a/biology/Microbiologie/Thigmophryidae/Thigmophryidae.xlsx
+++ b/biology/Microbiologie/Thigmophryidae/Thigmophryidae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Thigmophryidae sont une famille de Ciliés de la classe des Oligohymenophorea et de l’ordre des Scuticociliatida.
 </t>
@@ -511,9 +523,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom de la famille vient du genre type Thigmophrya, de thigma-, toucher, et du suffixe -ophrys dérivé du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié »[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom de la famille vient du genre type Thigmophrya, de thigma-, toucher, et du suffixe -ophrys dérivé du grec ancien οφρύς / ophrýs, « sourcil ⇒ cil ⇒ cilié ».
 </t>
         </is>
       </c>
@@ -542,12 +556,14 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Selon Lynn (2010) les espèces qui composent les Thigmophryidae ont une taille moyenne[note 1] ; une forme ovoïde allongée, aplatie latéralement. Ce sont des organismes qui nagent librement. Ils ont une ciliation somatique, holotriche[note 2], dense, avec une ciliature thigmotactique[note 3] très dense, sur la face antérieure gauche du corps.
 La région buccale est une cavité située dans le quart postérieur du corps, avec une cilliature buccale parorale réduite et une seule polycinétide buccale [note 4].
-Le macronoyau va d’un aspect globuleux à une forme ellipsoïde, parfois en forme de bande et nodulaire. On y note la présence d’un micronoyau et d’une vacuole contractile[2].
-Les notes de vocabulaires sont extraites de l'« Australian Protists Glossary »[3].
+Le macronoyau va d’un aspect globuleux à une forme ellipsoïde, parfois en forme de bande et nodulaire. On y note la présence d’un micronoyau et d’une vacuole contractile.
+Les notes de vocabulaires sont extraites de l'« Australian Protists Glossary ».
 </t>
         </is>
       </c>
@@ -576,9 +592,11 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Thigmophryidae vivent aussi bien dans des milieux marins que terrestres. Parfois dans la vase. La plupart sont des commensaux dans les replis du manteau de mollusques bivalves marins, chez des pulmonés terrestres ; une espèce a été découverte en tant qu'endocommensale d'un ver némertin, lequel vit dans le manteau d'un mollusque bivalve[2].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Thigmophryidae vivent aussi bien dans des milieux marins que terrestres. Parfois dans la vase. La plupart sont des commensaux dans les replis du manteau de mollusques bivalves marins, chez des pulmonés terrestres ; une espèce a été découverte en tant qu'endocommensale d'un ver némertin, lequel vit dans le manteau d'un mollusque bivalve.
 </t>
         </is>
       </c>
@@ -607,23 +625,25 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Selon GBIF       (26 janvier 2023)[4] :
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Selon GBIF       (26 janvier 2023) :
 Cochliophilus Kozloff, 1945
 Myxophthirus da Silva Neto, 1992
 Myxophyllum Raabe, 1934
 Thigmophrya Chatton &amp; Lwoff, 1923 genre type
-Selon The Taxonomicon  (26 janvier 2023)[5] :
+Selon The Taxonomicon  (26 janvier 2023) :
 Cochliodomus Raabe, 1971
 Cochliophilus Kozloff, 1945
 Conchophyllum Raabe, 1936
 Myxophyllum Raabe, 1934
 Thigmophrya Chatton &amp; Lwoff, 1923
-Selon le World Register of Marine Species                               (26 janvier 2023)[6] :
+Selon le World Register of Marine Species                               (26 janvier 2023) :
 Myxophyllum Raabe, 1934
 Thigmophrya Chatton &amp; Lwoff, 1923
-Selon Lynn (2010)[2] :
+Selon Lynn (2010) :
 Cochliodomus Raabe, 1971 (genre type de la famille des Cochliodomidae)
 Cochliophilus Kozloff, 1945
 Conchophyllum Raabe, 1936 (genre type de la famille des Conchophyllidae)
@@ -657,9 +677,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom valide de ce taxon est Thigmophryidae Chatton &amp; Lwoff, 1926[6].
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom valide de ce taxon est Thigmophryidae Chatton &amp; Lwoff, 1926.
 </t>
         </is>
       </c>
